--- a/database.xlsx
+++ b/database.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +516,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89052325046</t>
+          <t>49832019847213</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>паблисити</t>
+          <t>прибыль</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>средне-проблематичный</t>
+          <t>безпроблемный</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -563,78 +563,6 @@
         <is>
           <t>Данный стейкхолдер относится к блоку «Хорошие отношения»:
 C этими стейкхолдерами необходимо установить тесные рабочие отношения, потому что для них проект важен, они вовлечены в реализацию и активно влияют на процесс и результат.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Александр</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Коряков</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>СПбПУ</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>студент</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>3491025803</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>низкий</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>вредительство</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>провал проекта</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>неудача</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>оппоненты</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>низкий</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>проблематичный</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>низкая</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Данный стейкхолдер относится к блоку «Низкий приоритет»: этот стейкхолдер вовлечен и относительно заинтересован, но от него зависит не так много, поэтому с точки зрения распределения менеджерского внимания, у него низкий приоритет.</t>
         </is>
       </c>
     </row>

--- a/database.xlsx
+++ b/database.xlsx
@@ -501,47 +501,48 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
+          <t>высокий</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>...</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>...</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>успех</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>...</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>...</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>...</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>...</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>...</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>...</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Данная личность не является стейкхолдером.</t>
+          <t>Данный стейкхолдер относится к блоку «Хорошие отношения»:
+C этими стейкхолдерами необходимо установить тесные рабочие отношения, потому что для них проект важен, они вовлечены в реализацию и активно влияют на процесс и результат.</t>
         </is>
       </c>
     </row>
